--- a/construction.XLSX
+++ b/construction.XLSX
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Programmer\eCosts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAE90523-FCC2-4CFA-B390-8755D87F7023}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C8D07CF-A399-46D4-ADD6-C0A45B563F16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5190" yWindow="390" windowWidth="22140" windowHeight="14565" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
     <t>value</t>
   </si>
   <si>
-    <t>Стоимость капитального строительства 1 кв.м. промышленного объекта</t>
+    <t>cost</t>
   </si>
 </sst>
 </file>
@@ -383,7 +383,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -403,7 +403,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
